--- a/data/pca/factorExposure/factorExposure_2018-12-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.08284774178927636</v>
+        <v>0.05403310539065583</v>
       </c>
       <c r="C2">
-        <v>0.05172159870982278</v>
+        <v>-0.03363210426712671</v>
       </c>
       <c r="D2">
-        <v>-0.0670529567625474</v>
+        <v>-0.008775054796719329</v>
       </c>
       <c r="E2">
-        <v>-0.0001327619198339409</v>
+        <v>0.03393333972295628</v>
       </c>
       <c r="F2">
-        <v>-0.112470568084195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1116158856291084</v>
+      </c>
+      <c r="G2">
+        <v>0.06129990502814529</v>
+      </c>
+      <c r="H2">
+        <v>-0.0637741189765135</v>
+      </c>
+      <c r="I2">
+        <v>-0.1114167205039993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1677864199934481</v>
+        <v>0.1274154595655261</v>
       </c>
       <c r="C3">
-        <v>-0.05487298291777604</v>
+        <v>-0.06843750410947927</v>
       </c>
       <c r="D3">
-        <v>-0.1580145063439014</v>
+        <v>0.0228315611517033</v>
       </c>
       <c r="E3">
-        <v>0.06326059894481884</v>
+        <v>-0.0331533039286299</v>
       </c>
       <c r="F3">
-        <v>-0.3764379738802162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3774914454088289</v>
+      </c>
+      <c r="G3">
+        <v>0.2904511850655837</v>
+      </c>
+      <c r="H3">
+        <v>-0.07781382648486099</v>
+      </c>
+      <c r="I3">
+        <v>-0.3920912512170798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07581384280596358</v>
+        <v>0.0597400211328268</v>
       </c>
       <c r="C4">
-        <v>0.01709083953827579</v>
+        <v>-0.03976248818925776</v>
       </c>
       <c r="D4">
-        <v>-0.06925055900998205</v>
+        <v>0.02784921123886139</v>
       </c>
       <c r="E4">
-        <v>0.05362680030089871</v>
+        <v>0.0452421605550188</v>
       </c>
       <c r="F4">
-        <v>-0.05818008030009217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07341651235784825</v>
+      </c>
+      <c r="G4">
+        <v>0.02659148102732603</v>
+      </c>
+      <c r="H4">
+        <v>-0.04545985958389458</v>
+      </c>
+      <c r="I4">
+        <v>-0.06697845242963703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.001496784953219167</v>
+        <v>0.02819522494271929</v>
       </c>
       <c r="C6">
-        <v>-0.001258267574094597</v>
+        <v>-0.01386013447521176</v>
       </c>
       <c r="D6">
-        <v>0.0004972510398851899</v>
+        <v>0.008042226961687333</v>
       </c>
       <c r="E6">
-        <v>-0.001606540585042679</v>
+        <v>0.009129323566893777</v>
       </c>
       <c r="F6">
-        <v>0.002763124549991721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01295978409307502</v>
+      </c>
+      <c r="G6">
+        <v>-0.02375838205503956</v>
+      </c>
+      <c r="H6">
+        <v>0.01016810010792291</v>
+      </c>
+      <c r="I6">
+        <v>-0.008473360593798895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03742806209533449</v>
+        <v>0.03162489328652007</v>
       </c>
       <c r="C7">
-        <v>0.01872386208038595</v>
+        <v>-0.003483923713305653</v>
       </c>
       <c r="D7">
-        <v>-0.04954504813603777</v>
+        <v>0.03723874619198704</v>
       </c>
       <c r="E7">
-        <v>0.009097793526200231</v>
+        <v>0.02774874986993237</v>
       </c>
       <c r="F7">
-        <v>-0.08352498518041968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05463912138128479</v>
+      </c>
+      <c r="G7">
+        <v>0.04900939981812488</v>
+      </c>
+      <c r="H7">
+        <v>-0.0008665001739624194</v>
+      </c>
+      <c r="I7">
+        <v>-0.04728161649176963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03781388809298033</v>
+        <v>0.01570254494973723</v>
       </c>
       <c r="C8">
-        <v>-0.005233084336908657</v>
+        <v>-0.03589522963264508</v>
       </c>
       <c r="D8">
-        <v>-0.0576409176391715</v>
+        <v>0.0239762707200471</v>
       </c>
       <c r="E8">
-        <v>0.04910181447042124</v>
+        <v>0.01816467238495742</v>
       </c>
       <c r="F8">
-        <v>-0.06762187788095977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.06983346952345403</v>
+      </c>
+      <c r="G8">
+        <v>0.05192283296692994</v>
+      </c>
+      <c r="H8">
+        <v>-0.03697397504289571</v>
+      </c>
+      <c r="I8">
+        <v>-0.0659318041420064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.06304108740543671</v>
+        <v>0.05113205078703435</v>
       </c>
       <c r="C9">
-        <v>0.02290412533896923</v>
+        <v>-0.02921561596299712</v>
       </c>
       <c r="D9">
-        <v>-0.05440202973513945</v>
+        <v>0.02696141184165179</v>
       </c>
       <c r="E9">
-        <v>0.06419672663634848</v>
+        <v>0.03775675843099739</v>
       </c>
       <c r="F9">
-        <v>-0.0498887303053384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07840322199556393</v>
+      </c>
+      <c r="G9">
+        <v>0.02497326664098946</v>
+      </c>
+      <c r="H9">
+        <v>-0.04714649146238192</v>
+      </c>
+      <c r="I9">
+        <v>-0.04263284221239635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03703903854356302</v>
+        <v>0.05564899866307375</v>
       </c>
       <c r="C10">
-        <v>0.06434048399250385</v>
+        <v>0.1508371869648017</v>
       </c>
       <c r="D10">
-        <v>0.1287363321983632</v>
+        <v>-0.0619071002665118</v>
       </c>
       <c r="E10">
-        <v>-0.07316668326503442</v>
+        <v>-0.04672957765276171</v>
       </c>
       <c r="F10">
-        <v>-0.0650570374379144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0474214137453</v>
+      </c>
+      <c r="G10">
+        <v>0.02781584806897898</v>
+      </c>
+      <c r="H10">
+        <v>-0.03768581949829566</v>
+      </c>
+      <c r="I10">
+        <v>-0.02550115126203175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05045869046611244</v>
+        <v>0.04239501055970792</v>
       </c>
       <c r="C11">
-        <v>-0.0007235263922662646</v>
+        <v>-0.03682701750474182</v>
       </c>
       <c r="D11">
-        <v>-0.03322828268367489</v>
+        <v>0.006259301710174098</v>
       </c>
       <c r="E11">
-        <v>0.00897325986476262</v>
+        <v>0.01223227592475993</v>
       </c>
       <c r="F11">
-        <v>-0.04779691842604451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03886963996181161</v>
+      </c>
+      <c r="G11">
+        <v>-0.0007640063615679712</v>
+      </c>
+      <c r="H11">
+        <v>-0.01635607965933453</v>
+      </c>
+      <c r="I11">
+        <v>-0.04092423680679445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04181000263048025</v>
+        <v>0.03964857909543286</v>
       </c>
       <c r="C12">
-        <v>-0.00176553612053569</v>
+        <v>-0.0303411746347099</v>
       </c>
       <c r="D12">
-        <v>-0.02847374202539607</v>
+        <v>0.01720827059915076</v>
       </c>
       <c r="E12">
-        <v>0.02703454455163263</v>
+        <v>0.01412130276242845</v>
       </c>
       <c r="F12">
-        <v>-0.03595272588824367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01733251537410245</v>
+      </c>
+      <c r="G12">
+        <v>0.004654006809284857</v>
+      </c>
+      <c r="H12">
+        <v>-0.00743010870886368</v>
+      </c>
+      <c r="I12">
+        <v>-0.0294503716999959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04532389252514124</v>
+        <v>0.03547418672926191</v>
       </c>
       <c r="C13">
-        <v>0.00831301990330971</v>
+        <v>-0.02736663837135687</v>
       </c>
       <c r="D13">
-        <v>-0.05112063324914858</v>
+        <v>-0.007441643240332681</v>
       </c>
       <c r="E13">
-        <v>-0.01030740008060353</v>
+        <v>0.009998916338911522</v>
       </c>
       <c r="F13">
-        <v>-0.1094440652137502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.09335861344616603</v>
+      </c>
+      <c r="G13">
+        <v>0.03843882376587056</v>
+      </c>
+      <c r="H13">
+        <v>-0.03490020093048495</v>
+      </c>
+      <c r="I13">
+        <v>-0.08091891053926362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02603114532331614</v>
+        <v>0.02101240271108302</v>
       </c>
       <c r="C14">
-        <v>0.01546064240857594</v>
+        <v>-0.01567025540057396</v>
       </c>
       <c r="D14">
-        <v>-0.04536875286122537</v>
+        <v>0.01054785604615416</v>
       </c>
       <c r="E14">
-        <v>0.01832610617692655</v>
+        <v>0.02847063824540442</v>
       </c>
       <c r="F14">
-        <v>-0.03207033260308832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03885693305571118</v>
+      </c>
+      <c r="G14">
+        <v>0.05997788720516726</v>
+      </c>
+      <c r="H14">
+        <v>-0.01858658389199974</v>
+      </c>
+      <c r="I14">
+        <v>-0.0213663925749919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04102040438125792</v>
+        <v>0.03598589937050763</v>
       </c>
       <c r="C16">
-        <v>-0.006006514178122051</v>
+        <v>-0.03405699738542483</v>
       </c>
       <c r="D16">
-        <v>-0.0305694373980644</v>
+        <v>0.01124135006412716</v>
       </c>
       <c r="E16">
-        <v>0.01263499120110458</v>
+        <v>0.0102923342104746</v>
       </c>
       <c r="F16">
-        <v>-0.0378522139060988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03457200390488656</v>
+      </c>
+      <c r="G16">
+        <v>0.005079759276229856</v>
+      </c>
+      <c r="H16">
+        <v>-0.008071484663739404</v>
+      </c>
+      <c r="I16">
+        <v>-0.04074577496040267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05745204196138625</v>
+        <v>0.04407744113208596</v>
       </c>
       <c r="C19">
-        <v>-0.01424821202470439</v>
+        <v>-0.0425922658737932</v>
       </c>
       <c r="D19">
-        <v>-0.05475044846115193</v>
+        <v>0.00953056141003142</v>
       </c>
       <c r="E19">
-        <v>0.0150898954836472</v>
+        <v>0.01468293288345682</v>
       </c>
       <c r="F19">
-        <v>-0.09953844567874394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09406543040999288</v>
+      </c>
+      <c r="G19">
+        <v>0.05391736663986874</v>
+      </c>
+      <c r="H19">
+        <v>-0.02489751486040333</v>
+      </c>
+      <c r="I19">
+        <v>-0.0864480997897855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.01762732764688975</v>
+        <v>0.01243632409830835</v>
       </c>
       <c r="C20">
-        <v>0.01224049854333215</v>
+        <v>-0.01681953765907019</v>
       </c>
       <c r="D20">
-        <v>-0.045371336307724</v>
+        <v>0.01029968388768469</v>
       </c>
       <c r="E20">
-        <v>0.03348719456538971</v>
+        <v>0.01936521820692438</v>
       </c>
       <c r="F20">
-        <v>-0.0700024688146838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06082573486052874</v>
+      </c>
+      <c r="G20">
+        <v>0.06391702783505179</v>
+      </c>
+      <c r="H20">
+        <v>-0.009587692722577743</v>
+      </c>
+      <c r="I20">
+        <v>-0.07818864297032832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01961457733803398</v>
+        <v>0.02675067703884817</v>
       </c>
       <c r="C21">
-        <v>-0.01110078852771789</v>
+        <v>-0.0198273534724001</v>
       </c>
       <c r="D21">
-        <v>-0.04511935058440496</v>
+        <v>0.01847187817069933</v>
       </c>
       <c r="E21">
-        <v>0.01244478107071819</v>
+        <v>0.007673100181011964</v>
       </c>
       <c r="F21">
-        <v>-0.09054398819246959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07059171964473596</v>
+      </c>
+      <c r="G21">
+        <v>0.02191729121885308</v>
+      </c>
+      <c r="H21">
+        <v>-0.05274940617687193</v>
+      </c>
+      <c r="I21">
+        <v>-0.01203876711605223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04021551413945277</v>
+        <v>0.03446013304451549</v>
       </c>
       <c r="C24">
-        <v>-0.002260110818971793</v>
+        <v>-0.02967723351255551</v>
       </c>
       <c r="D24">
-        <v>-0.03015705487776694</v>
+        <v>0.01030368557157022</v>
       </c>
       <c r="E24">
-        <v>0.01621945330835067</v>
+        <v>0.0116053965780853</v>
       </c>
       <c r="F24">
-        <v>-0.04672180427788799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03710184154843948</v>
+      </c>
+      <c r="G24">
+        <v>0.001162109319584957</v>
+      </c>
+      <c r="H24">
+        <v>-0.01005450091683543</v>
+      </c>
+      <c r="I24">
+        <v>-0.04343292922640508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04223588539319476</v>
+        <v>0.04247561903584616</v>
       </c>
       <c r="C25">
-        <v>0.0009176249671534412</v>
+        <v>-0.02923787761409287</v>
       </c>
       <c r="D25">
-        <v>-0.03023560469811733</v>
+        <v>0.009160106569626986</v>
       </c>
       <c r="E25">
-        <v>0.01735304885503118</v>
+        <v>0.01275040862359694</v>
       </c>
       <c r="F25">
-        <v>-0.04536572433907684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04553727831960032</v>
+      </c>
+      <c r="G25">
+        <v>-0.00570587333477966</v>
+      </c>
+      <c r="H25">
+        <v>-0.01742710903240622</v>
+      </c>
+      <c r="I25">
+        <v>-0.03588927276698656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01826066540157315</v>
+        <v>0.0110829585567643</v>
       </c>
       <c r="C26">
-        <v>-0.006753735809327791</v>
+        <v>-0.02625337925130587</v>
       </c>
       <c r="D26">
-        <v>-0.05455697203627876</v>
+        <v>0.004178882168713544</v>
       </c>
       <c r="E26">
-        <v>-0.001225127882281878</v>
+        <v>0.002538494212396168</v>
       </c>
       <c r="F26">
-        <v>-0.03786556136303859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04523577350996671</v>
+      </c>
+      <c r="G26">
+        <v>0.03487746414387115</v>
+      </c>
+      <c r="H26">
+        <v>-0.01247150935318672</v>
+      </c>
+      <c r="I26">
+        <v>-0.04083973460786624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1056955174193142</v>
+        <v>0.06094057704501103</v>
       </c>
       <c r="C27">
-        <v>0.02878717606924621</v>
+        <v>-0.01930681011263327</v>
       </c>
       <c r="D27">
-        <v>-0.0458453079391702</v>
+        <v>0.008877552858259559</v>
       </c>
       <c r="E27">
-        <v>0.04092107486610979</v>
+        <v>0.02907883213716325</v>
       </c>
       <c r="F27">
-        <v>-0.05867932650561405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.04749439743369849</v>
+      </c>
+      <c r="G27">
+        <v>0.03789424307606536</v>
+      </c>
+      <c r="H27">
+        <v>-0.0238072253156002</v>
+      </c>
+      <c r="I27">
+        <v>-0.02529677065507863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05064680162699536</v>
+        <v>0.08124074578598205</v>
       </c>
       <c r="C28">
-        <v>0.08185473993558472</v>
+        <v>0.230525420148984</v>
       </c>
       <c r="D28">
-        <v>0.214526299493711</v>
+        <v>-0.08551464095150682</v>
       </c>
       <c r="E28">
-        <v>-0.1019845661257734</v>
+        <v>-0.06888108967594141</v>
       </c>
       <c r="F28">
-        <v>-0.03985505972988338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.02541768387929016</v>
+      </c>
+      <c r="G28">
+        <v>0.04934969821237157</v>
+      </c>
+      <c r="H28">
+        <v>-0.03234629440891846</v>
+      </c>
+      <c r="I28">
+        <v>-0.04401974285446125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0270432817458633</v>
+        <v>0.02154848786229888</v>
       </c>
       <c r="C29">
-        <v>0.01247809668809726</v>
+        <v>-0.01672007528590334</v>
       </c>
       <c r="D29">
-        <v>-0.0456924822057466</v>
+        <v>0.01358849522674664</v>
       </c>
       <c r="E29">
-        <v>0.03060977255730171</v>
+        <v>0.03129537204415576</v>
       </c>
       <c r="F29">
-        <v>-0.01982528106106718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03417760476850268</v>
+      </c>
+      <c r="G29">
+        <v>0.05938186016484445</v>
+      </c>
+      <c r="H29">
+        <v>-0.0228055611248646</v>
+      </c>
+      <c r="I29">
+        <v>-0.003857447741402541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1018033903875151</v>
+        <v>0.0819372594528659</v>
       </c>
       <c r="C30">
-        <v>0.03515016330046751</v>
+        <v>-0.06594434427488197</v>
       </c>
       <c r="D30">
-        <v>-0.06946163244622336</v>
+        <v>-0.02109529752168119</v>
       </c>
       <c r="E30">
-        <v>0.0232391101827308</v>
+        <v>0.04120277225431421</v>
       </c>
       <c r="F30">
-        <v>-0.1117273885146697</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1033721957792954</v>
+      </c>
+      <c r="G30">
+        <v>0.02011766171497462</v>
+      </c>
+      <c r="H30">
+        <v>0.002740529230877573</v>
+      </c>
+      <c r="I30">
+        <v>-0.03243682753306937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06059219360149944</v>
+        <v>0.05545539160703399</v>
       </c>
       <c r="C31">
-        <v>0.01482699060515281</v>
+        <v>-0.02031854633487207</v>
       </c>
       <c r="D31">
-        <v>-0.03386489176926986</v>
+        <v>-0.00297574623690328</v>
       </c>
       <c r="E31">
-        <v>-0.02807711664334526</v>
+        <v>0.02137139504356838</v>
       </c>
       <c r="F31">
-        <v>0.0160072568352527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0006143346280486445</v>
+      </c>
+      <c r="G31">
+        <v>0.0484392674059872</v>
+      </c>
+      <c r="H31">
+        <v>-0.04372970376016873</v>
+      </c>
+      <c r="I31">
+        <v>-0.01657137693153352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.05017102618342274</v>
+        <v>0.03050606299816448</v>
       </c>
       <c r="C32">
-        <v>0.004036543695357372</v>
+        <v>-0.03011816671958842</v>
       </c>
       <c r="D32">
-        <v>-0.05842686647610503</v>
+        <v>0.02471858006504435</v>
       </c>
       <c r="E32">
-        <v>0.03757707654509167</v>
+        <v>0.04397445771359298</v>
       </c>
       <c r="F32">
-        <v>-0.07712082932449137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0865682156759746</v>
+      </c>
+      <c r="G32">
+        <v>0.009677843839158005</v>
+      </c>
+      <c r="H32">
+        <v>-0.006920014126650241</v>
+      </c>
+      <c r="I32">
+        <v>-0.06521323383893615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.05016470905258725</v>
+        <v>0.04384628839547367</v>
       </c>
       <c r="C33">
-        <v>-0.006823564302568834</v>
+        <v>-0.05616087156169332</v>
       </c>
       <c r="D33">
-        <v>-0.0808797085575627</v>
+        <v>-0.001765371171549599</v>
       </c>
       <c r="E33">
-        <v>0.01717866733798561</v>
+        <v>0.01058951759399771</v>
       </c>
       <c r="F33">
-        <v>-0.06299170573385954</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07070583191131936</v>
+      </c>
+      <c r="G33">
+        <v>0.04432770380928311</v>
+      </c>
+      <c r="H33">
+        <v>-0.03834530182744111</v>
+      </c>
+      <c r="I33">
+        <v>-0.0435594101933558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04004774277582328</v>
+        <v>0.03707739988550939</v>
       </c>
       <c r="C34">
-        <v>0.005623929157059584</v>
+        <v>-0.03167488965523726</v>
       </c>
       <c r="D34">
-        <v>-0.03520898541622594</v>
+        <v>0.01603918531699969</v>
       </c>
       <c r="E34">
-        <v>0.01842748247240965</v>
+        <v>0.02200491164055712</v>
       </c>
       <c r="F34">
-        <v>-0.03857313884698346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03832317478352806</v>
+      </c>
+      <c r="G34">
+        <v>0.001585980643812858</v>
+      </c>
+      <c r="H34">
+        <v>-0.0128699089359147</v>
+      </c>
+      <c r="I34">
+        <v>-0.04166803228942993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01373844970146262</v>
+        <v>0.01551737134942911</v>
       </c>
       <c r="C36">
-        <v>0.01168380473091941</v>
+        <v>-0.0006519233204502473</v>
       </c>
       <c r="D36">
-        <v>-0.01299310814951542</v>
+        <v>0.003693120318899751</v>
       </c>
       <c r="E36">
-        <v>0.01138821180706927</v>
+        <v>0.01021556095100031</v>
       </c>
       <c r="F36">
-        <v>-0.02381331830943813</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0268158089985321</v>
+      </c>
+      <c r="G36">
+        <v>0.03454545192476619</v>
+      </c>
+      <c r="H36">
+        <v>-0.02394962922757015</v>
+      </c>
+      <c r="I36">
+        <v>0.005663092681729802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.02138951647757987</v>
+        <v>0.02441683435172627</v>
       </c>
       <c r="C38">
-        <v>0.006312019569838008</v>
+        <v>-0.00323507494408361</v>
       </c>
       <c r="D38">
-        <v>0.005873528108146655</v>
+        <v>0.005833616991752867</v>
       </c>
       <c r="E38">
-        <v>0.01036551709763275</v>
+        <v>0.003247937710381062</v>
       </c>
       <c r="F38">
-        <v>-0.01772883064388052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04162063750020518</v>
+      </c>
+      <c r="G38">
+        <v>0.01970000656257162</v>
+      </c>
+      <c r="H38">
+        <v>-0.02994177096198151</v>
+      </c>
+      <c r="I38">
+        <v>-0.002271172461934462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06171399885717539</v>
+        <v>0.04678388699082867</v>
       </c>
       <c r="C39">
-        <v>0.007308424250459356</v>
+        <v>-0.05215236861964794</v>
       </c>
       <c r="D39">
-        <v>-0.0491052641659971</v>
+        <v>0.01131134507029338</v>
       </c>
       <c r="E39">
-        <v>0.006066684810579916</v>
+        <v>0.0272552452403752</v>
       </c>
       <c r="F39">
-        <v>-0.03766998272156354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0570618364989685</v>
+      </c>
+      <c r="G39">
+        <v>-0.006936301893206948</v>
+      </c>
+      <c r="H39">
+        <v>-0.02441997140166863</v>
+      </c>
+      <c r="I39">
+        <v>-0.02420066786942547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.05452038881990412</v>
+        <v>0.045730359778654</v>
       </c>
       <c r="C40">
-        <v>0.02502701119487545</v>
+        <v>-0.04589027661780072</v>
       </c>
       <c r="D40">
-        <v>-0.07467473343565356</v>
+        <v>-0.008453284579457387</v>
       </c>
       <c r="E40">
-        <v>-0.01142651556552622</v>
+        <v>0.02943101148549266</v>
       </c>
       <c r="F40">
-        <v>-0.08343646410580247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.08057919881182928</v>
+      </c>
+      <c r="G40">
+        <v>0.03497993067940944</v>
+      </c>
+      <c r="H40">
+        <v>-0.03380941048165821</v>
+      </c>
+      <c r="I40">
+        <v>-0.1147330705398771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.007990510861805271</v>
+        <v>-0.0003702035664562997</v>
       </c>
       <c r="C41">
-        <v>0.002118773155199742</v>
+        <v>-0.003377454690107756</v>
       </c>
       <c r="D41">
-        <v>-0.02840520842203</v>
+        <v>0.0001747095282871657</v>
       </c>
       <c r="E41">
-        <v>0.01018543845472973</v>
+        <v>0.00733127505386271</v>
       </c>
       <c r="F41">
-        <v>0.01098700171090391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005847030410448578</v>
+      </c>
+      <c r="G41">
+        <v>0.04637675101363589</v>
+      </c>
+      <c r="H41">
+        <v>-0.03746630778812522</v>
+      </c>
+      <c r="I41">
+        <v>-0.001688237706392643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2534323709863849</v>
+        <v>0.203894465968913</v>
       </c>
       <c r="C42">
-        <v>-0.9120039314264845</v>
+        <v>-0.3381353491241121</v>
       </c>
       <c r="D42">
-        <v>0.1260784282427166</v>
+        <v>0.09481086201343523</v>
       </c>
       <c r="E42">
-        <v>-0.2298740226647397</v>
+        <v>-0.8824995559301472</v>
       </c>
       <c r="F42">
-        <v>0.03839175207883204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1632978315293997</v>
+      </c>
+      <c r="G42">
+        <v>-0.01453832517486739</v>
+      </c>
+      <c r="H42">
+        <v>0.00960127635364239</v>
+      </c>
+      <c r="I42">
+        <v>-0.03172124425036112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007225242357755936</v>
+        <v>0.002399590399821725</v>
       </c>
       <c r="C43">
-        <v>0.001728502454083374</v>
+        <v>-0.006127177104913547</v>
       </c>
       <c r="D43">
-        <v>-0.03090039727878581</v>
+        <v>-0.0015236828192097</v>
       </c>
       <c r="E43">
-        <v>0.005669277118716141</v>
+        <v>0.005359309370109316</v>
       </c>
       <c r="F43">
-        <v>-0.01858194115585049</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.0172197192941454</v>
+      </c>
+      <c r="G43">
+        <v>0.03870446110336488</v>
+      </c>
+      <c r="H43">
+        <v>-0.02141394254152047</v>
+      </c>
+      <c r="I43">
+        <v>-0.01112425329343108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02821812978564436</v>
+        <v>0.01924645248061522</v>
       </c>
       <c r="C44">
-        <v>-0.001258240404760311</v>
+        <v>-0.03272182172034785</v>
       </c>
       <c r="D44">
-        <v>-0.07256719873082182</v>
+        <v>0.01220389794576558</v>
       </c>
       <c r="E44">
-        <v>0.02446844057175627</v>
+        <v>0.01338993106294763</v>
       </c>
       <c r="F44">
-        <v>-0.1093054361434341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1136587473641033</v>
+      </c>
+      <c r="G44">
+        <v>0.09607010830819954</v>
+      </c>
+      <c r="H44">
+        <v>-0.05599493804412971</v>
+      </c>
+      <c r="I44">
+        <v>-0.06271680065323358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02919885308421706</v>
+        <v>0.02083713997845472</v>
       </c>
       <c r="C46">
-        <v>0.008135996693503273</v>
+        <v>-0.03181583930723408</v>
       </c>
       <c r="D46">
-        <v>-0.05354557322295271</v>
+        <v>0.005569898520975052</v>
       </c>
       <c r="E46">
-        <v>0.01455545664596677</v>
+        <v>0.03297998016714022</v>
       </c>
       <c r="F46">
-        <v>-0.01088128889166053</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04448710369797588</v>
+      </c>
+      <c r="G46">
+        <v>0.06171752179487447</v>
+      </c>
+      <c r="H46">
+        <v>-0.0224475600851814</v>
+      </c>
+      <c r="I46">
+        <v>-0.009062055288350237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08596268203379213</v>
+        <v>0.08169488618701956</v>
       </c>
       <c r="C47">
-        <v>0.01873392232944699</v>
+        <v>-0.02721954804950966</v>
       </c>
       <c r="D47">
-        <v>-0.03906078475848096</v>
+        <v>0.005536961792451373</v>
       </c>
       <c r="E47">
-        <v>0.01450371748756204</v>
+        <v>0.03103513598047293</v>
       </c>
       <c r="F47">
-        <v>0.02356749017586884</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02003811215061566</v>
+      </c>
+      <c r="G47">
+        <v>0.07209009178807985</v>
+      </c>
+      <c r="H47">
+        <v>-0.03163557940180962</v>
+      </c>
+      <c r="I47">
+        <v>-0.02815329994328337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01254759707185319</v>
+        <v>0.01826992649921631</v>
       </c>
       <c r="C48">
-        <v>0.007196342165966809</v>
+        <v>-0.01145319927105311</v>
       </c>
       <c r="D48">
-        <v>-0.03393345167766447</v>
+        <v>0.004525934518154424</v>
       </c>
       <c r="E48">
-        <v>0.01298206594283706</v>
+        <v>0.01405925150804875</v>
       </c>
       <c r="F48">
-        <v>-0.02989625780757323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02896228413262502</v>
+      </c>
+      <c r="G48">
+        <v>0.02829338276148513</v>
+      </c>
+      <c r="H48">
+        <v>-0.01803261760812222</v>
+      </c>
+      <c r="I48">
+        <v>-0.01398207215664547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08580530462309519</v>
+        <v>0.08176799402717451</v>
       </c>
       <c r="C50">
-        <v>0.00485332216198726</v>
+        <v>-0.03682644732834815</v>
       </c>
       <c r="D50">
-        <v>-0.04079318121858222</v>
+        <v>0.02166055707865941</v>
       </c>
       <c r="E50">
-        <v>-0.00501363717325483</v>
+        <v>0.02297727137313147</v>
       </c>
       <c r="F50">
-        <v>0.01182271632964324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.007096601106222669</v>
+      </c>
+      <c r="G50">
+        <v>0.04818707260041779</v>
+      </c>
+      <c r="H50">
+        <v>0.003997990787778202</v>
+      </c>
+      <c r="I50">
+        <v>0.007603484310697935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05364226507334191</v>
+        <v>0.03730867719066746</v>
       </c>
       <c r="C51">
-        <v>0.01441344573862742</v>
+        <v>-0.002156968747794278</v>
       </c>
       <c r="D51">
-        <v>-0.03263270369912448</v>
+        <v>-0.01206380542110333</v>
       </c>
       <c r="E51">
-        <v>-0.02821303597848807</v>
+        <v>0.006101970340365366</v>
       </c>
       <c r="F51">
-        <v>-0.06169264857390746</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08205293970903055</v>
+      </c>
+      <c r="G51">
+        <v>0.07230125867128215</v>
+      </c>
+      <c r="H51">
+        <v>-0.05742112482092566</v>
+      </c>
+      <c r="I51">
+        <v>-0.04452384404014977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1233199133605733</v>
+        <v>0.1130837104679639</v>
       </c>
       <c r="C53">
-        <v>0.02686687141306664</v>
+        <v>-0.04859954917983908</v>
       </c>
       <c r="D53">
-        <v>-0.06113072289549202</v>
+        <v>0.01088185699558597</v>
       </c>
       <c r="E53">
-        <v>0.001132342592099132</v>
+        <v>0.05733451399275518</v>
       </c>
       <c r="F53">
-        <v>0.07986579173903863</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05990907067813444</v>
+      </c>
+      <c r="G53">
+        <v>0.02765699837525796</v>
+      </c>
+      <c r="H53">
+        <v>-0.02157155829693097</v>
+      </c>
+      <c r="I53">
+        <v>-0.02471949241826699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02289359419863048</v>
+        <v>0.02435213747431622</v>
       </c>
       <c r="C54">
-        <v>0.01996152222205188</v>
+        <v>-0.001618922740770895</v>
       </c>
       <c r="D54">
-        <v>-0.03074915493116553</v>
+        <v>0.004706341374955797</v>
       </c>
       <c r="E54">
-        <v>0.01819119038488094</v>
+        <v>0.03028797880347758</v>
       </c>
       <c r="F54">
-        <v>-0.03375525969873302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0343546400940859</v>
+      </c>
+      <c r="G54">
+        <v>0.05818945321206144</v>
+      </c>
+      <c r="H54">
+        <v>-0.02940019955696545</v>
+      </c>
+      <c r="I54">
+        <v>-0.002990973728135625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1039600272405137</v>
+        <v>0.09215376279411519</v>
       </c>
       <c r="C55">
-        <v>0.01833250148282217</v>
+        <v>-0.04000526096206981</v>
       </c>
       <c r="D55">
-        <v>-0.018935710749035</v>
+        <v>0.02613475618007381</v>
       </c>
       <c r="E55">
-        <v>0.03998227748961771</v>
+        <v>0.04283918182121556</v>
       </c>
       <c r="F55">
-        <v>0.02861412135136888</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04247931221625349</v>
+      </c>
+      <c r="G55">
+        <v>0.03949228995527203</v>
+      </c>
+      <c r="H55">
+        <v>0.01587930145407889</v>
+      </c>
+      <c r="I55">
+        <v>-0.0106133444808094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1624718174725013</v>
+        <v>0.1558758469617474</v>
       </c>
       <c r="C56">
-        <v>0.07525678896616968</v>
+        <v>-0.04201642611935801</v>
       </c>
       <c r="D56">
-        <v>-0.03659577520949169</v>
+        <v>0.01111111792865535</v>
       </c>
       <c r="E56">
-        <v>0.02021888691597899</v>
+        <v>0.09276506688903835</v>
       </c>
       <c r="F56">
-        <v>0.1201677478950828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1030766429994121</v>
+      </c>
+      <c r="G56">
+        <v>-0.01528945681061381</v>
+      </c>
+      <c r="H56">
+        <v>0.02069629889089607</v>
+      </c>
+      <c r="I56">
+        <v>-0.02111429209640689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.06405810548431887</v>
+        <v>0.05399943251764118</v>
       </c>
       <c r="C57">
-        <v>0.0113609458826291</v>
+        <v>-0.03424724977702113</v>
       </c>
       <c r="D57">
-        <v>-0.05447568682933986</v>
+        <v>-0.007319962231353267</v>
       </c>
       <c r="E57">
-        <v>-0.008719098847228822</v>
+        <v>0.006271517364949437</v>
       </c>
       <c r="F57">
-        <v>-0.05702158842835341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.062484132819834</v>
+      </c>
+      <c r="G57">
+        <v>0.02365849281657079</v>
+      </c>
+      <c r="H57">
+        <v>-0.02184245371022431</v>
+      </c>
+      <c r="I57">
+        <v>-0.03661841404577911</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1983565119523881</v>
+        <v>0.1890806864980232</v>
       </c>
       <c r="C58">
-        <v>0.004616184353493175</v>
+        <v>-0.1543957235328724</v>
       </c>
       <c r="D58">
-        <v>-0.1297210641086305</v>
+        <v>-0.04750593923199941</v>
       </c>
       <c r="E58">
-        <v>0.0119177418227795</v>
+        <v>-0.02018122747706527</v>
       </c>
       <c r="F58">
-        <v>-0.2507782844973678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.3770757060669684</v>
+      </c>
+      <c r="G58">
+        <v>0.345409367792224</v>
+      </c>
+      <c r="H58">
+        <v>0.319375734941246</v>
+      </c>
+      <c r="I58">
+        <v>0.7064493411687666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.06009889026778474</v>
+        <v>0.08982554814571861</v>
       </c>
       <c r="C59">
-        <v>0.1006776717911191</v>
+        <v>0.1897748373059103</v>
       </c>
       <c r="D59">
-        <v>0.147927487788748</v>
+        <v>-0.08802394290672265</v>
       </c>
       <c r="E59">
-        <v>-0.0632849355186058</v>
+        <v>-0.02709192789153705</v>
       </c>
       <c r="F59">
-        <v>-0.04433460155367297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.05182396856828603</v>
+      </c>
+      <c r="G59">
+        <v>0.01643760867931626</v>
+      </c>
+      <c r="H59">
+        <v>-0.02603737017033552</v>
+      </c>
+      <c r="I59">
+        <v>-0.01220311298793367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1853380224514474</v>
+        <v>0.2012952936175654</v>
       </c>
       <c r="C60">
-        <v>0.06215715661814902</v>
+        <v>0.008853348124508009</v>
       </c>
       <c r="D60">
-        <v>0.004652234797362169</v>
+        <v>-0.06480847909140874</v>
       </c>
       <c r="E60">
-        <v>-0.07952410663231527</v>
+        <v>0.02096341183568231</v>
       </c>
       <c r="F60">
-        <v>-0.1488863061315437</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1923781463003195</v>
+      </c>
+      <c r="G60">
+        <v>-0.3501996561769628</v>
+      </c>
+      <c r="H60">
+        <v>-0.02176976461122298</v>
+      </c>
+      <c r="I60">
+        <v>-0.02629511369266454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03145791528447641</v>
+        <v>0.03456326077241658</v>
       </c>
       <c r="C61">
-        <v>0.003333516899147905</v>
+        <v>-0.03351481129885706</v>
       </c>
       <c r="D61">
-        <v>-0.02536557747481615</v>
+        <v>0.0124974571120585</v>
       </c>
       <c r="E61">
-        <v>0.01851592713927609</v>
+        <v>0.01967153396465828</v>
       </c>
       <c r="F61">
-        <v>-0.04041812056038355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.04022176325485434</v>
+      </c>
+      <c r="G61">
+        <v>-0.01517179972553937</v>
+      </c>
+      <c r="H61">
+        <v>-0.01455698654731007</v>
+      </c>
+      <c r="I61">
+        <v>-0.01248232543467911</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.02868792268226799</v>
+        <v>0.02434918119758964</v>
       </c>
       <c r="C63">
-        <v>0.01315537933051876</v>
+        <v>-0.02290355539226482</v>
       </c>
       <c r="D63">
-        <v>-0.04001302429213734</v>
+        <v>0.006561777545223922</v>
       </c>
       <c r="E63">
-        <v>0.01331136244413971</v>
+        <v>0.01903294196205296</v>
       </c>
       <c r="F63">
-        <v>-0.04436606267994396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03049678185378252</v>
+      </c>
+      <c r="G63">
+        <v>0.05044908455763363</v>
+      </c>
+      <c r="H63">
+        <v>-0.003334950259301438</v>
+      </c>
+      <c r="I63">
+        <v>-0.03063705053845266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05114649832367778</v>
+        <v>0.05168712072508494</v>
       </c>
       <c r="C64">
-        <v>0.00598467513257202</v>
+        <v>-0.03562032159218929</v>
       </c>
       <c r="D64">
-        <v>-0.05218658976794668</v>
+        <v>0.02405525308442185</v>
       </c>
       <c r="E64">
-        <v>0.05439524389174226</v>
+        <v>0.02701002556065987</v>
       </c>
       <c r="F64">
-        <v>-0.03842097379803211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04126057546991511</v>
+      </c>
+      <c r="G64">
+        <v>0.03185911777867242</v>
+      </c>
+      <c r="H64">
+        <v>-0.06434920214385657</v>
+      </c>
+      <c r="I64">
+        <v>-0.05426966794241914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.001459620756545412</v>
+        <v>0.03172257919596074</v>
       </c>
       <c r="C65">
-        <v>-0.00243451818144011</v>
+        <v>-0.01419889775021332</v>
       </c>
       <c r="D65">
-        <v>0.0009185314758336797</v>
+        <v>0.008188876017177771</v>
       </c>
       <c r="E65">
-        <v>-0.001725277979335249</v>
+        <v>0.009251307407004594</v>
       </c>
       <c r="F65">
-        <v>0.002756059772359844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0102046563429756</v>
+      </c>
+      <c r="G65">
+        <v>-0.02830255284502086</v>
+      </c>
+      <c r="H65">
+        <v>0.007649241591654966</v>
+      </c>
+      <c r="I65">
+        <v>-0.008352701835749432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0608084230627059</v>
+        <v>0.05580483395105469</v>
       </c>
       <c r="C66">
-        <v>0.02235905724568919</v>
+        <v>-0.06151344586969752</v>
       </c>
       <c r="D66">
-        <v>-0.06945521748345174</v>
+        <v>0.006331014914088069</v>
       </c>
       <c r="E66">
-        <v>0.03016060208189051</v>
+        <v>0.05307723746907782</v>
       </c>
       <c r="F66">
-        <v>-0.07798372002695149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07093295586339034</v>
+      </c>
+      <c r="G66">
+        <v>-0.01455929715605178</v>
+      </c>
+      <c r="H66">
+        <v>-0.01236837113522997</v>
+      </c>
+      <c r="I66">
+        <v>-0.06599821252490477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03929004708592259</v>
+        <v>0.04259019193371467</v>
       </c>
       <c r="C67">
-        <v>0.01288399082307331</v>
+        <v>0.005283237455672468</v>
       </c>
       <c r="D67">
-        <v>0.01943318658576833</v>
+        <v>-0.002036842460798301</v>
       </c>
       <c r="E67">
-        <v>-0.003473775053513253</v>
+        <v>0.004964208687776371</v>
       </c>
       <c r="F67">
-        <v>-0.02363084919703987</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03365012640326342</v>
+      </c>
+      <c r="G67">
+        <v>-0.003316589045369008</v>
+      </c>
+      <c r="H67">
+        <v>-0.04418180053453512</v>
+      </c>
+      <c r="I67">
+        <v>0.001864508142306522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.06936430960484916</v>
+        <v>0.08746984805031581</v>
       </c>
       <c r="C68">
-        <v>0.08734280800124129</v>
+        <v>0.2154417124356105</v>
       </c>
       <c r="D68">
-        <v>0.2077253243902893</v>
+        <v>-0.09267403051366331</v>
       </c>
       <c r="E68">
-        <v>-0.09309076773883633</v>
+        <v>-0.05754950946686615</v>
       </c>
       <c r="F68">
-        <v>-0.01417635602387362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.005323314594398592</v>
+      </c>
+      <c r="G68">
+        <v>0.04189400697104293</v>
+      </c>
+      <c r="H68">
+        <v>0.01552704350189337</v>
+      </c>
+      <c r="I68">
+        <v>0.02366556862273803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07057248669934309</v>
+        <v>0.06680325866263476</v>
       </c>
       <c r="C69">
-        <v>0.02298084650551059</v>
+        <v>-0.02303906456717318</v>
       </c>
       <c r="D69">
-        <v>-0.02427128082717226</v>
+        <v>0.001068484455890009</v>
       </c>
       <c r="E69">
-        <v>-0.001773089097441535</v>
+        <v>0.03127511999757046</v>
       </c>
       <c r="F69">
-        <v>0.005329074032565195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.005304985662494302</v>
+      </c>
+      <c r="G69">
+        <v>0.04656748531313037</v>
+      </c>
+      <c r="H69">
+        <v>-0.025818787128892</v>
+      </c>
+      <c r="I69">
+        <v>-0.02320511358155267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.07238827645705276</v>
+        <v>0.08819109754648909</v>
       </c>
       <c r="C71">
-        <v>0.1119946358041248</v>
+        <v>0.2329609332655171</v>
       </c>
       <c r="D71">
-        <v>0.2460133832553787</v>
+        <v>-0.1049302735290638</v>
       </c>
       <c r="E71">
-        <v>-0.1518874346649282</v>
+        <v>-0.07183026054828884</v>
       </c>
       <c r="F71">
-        <v>-0.06161370388145421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03168888588150048</v>
+      </c>
+      <c r="G71">
+        <v>0.02858108612068677</v>
+      </c>
+      <c r="H71">
+        <v>-0.01570988825261136</v>
+      </c>
+      <c r="I71">
+        <v>0.0001219593288043151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1280457859334146</v>
+        <v>0.1333231537096131</v>
       </c>
       <c r="C72">
-        <v>0.0707857986770605</v>
+        <v>-0.05625659861981671</v>
       </c>
       <c r="D72">
-        <v>-0.04391907231394844</v>
+        <v>0.0005146286438413623</v>
       </c>
       <c r="E72">
-        <v>0.01780244740671937</v>
+        <v>0.09033933577010637</v>
       </c>
       <c r="F72">
-        <v>-0.06930831332177817</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09690151787992589</v>
+      </c>
+      <c r="G72">
+        <v>-0.09604164560892983</v>
+      </c>
+      <c r="H72">
+        <v>-0.009645996965783046</v>
+      </c>
+      <c r="I72">
+        <v>0.1541344525234145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2855627653367526</v>
+        <v>0.2874193059154757</v>
       </c>
       <c r="C73">
-        <v>0.0820862839954131</v>
+        <v>-0.005922495561066062</v>
       </c>
       <c r="D73">
-        <v>0.04779158320374111</v>
+        <v>-0.09986189947383327</v>
       </c>
       <c r="E73">
-        <v>-0.1096131901982165</v>
+        <v>-0.01597073436077796</v>
       </c>
       <c r="F73">
-        <v>-0.2584556682621852</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.273038865020641</v>
+      </c>
+      <c r="G73">
+        <v>-0.5307058409538009</v>
+      </c>
+      <c r="H73">
+        <v>0.01715479725573396</v>
+      </c>
+      <c r="I73">
+        <v>0.01617519942335923</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1429641808423296</v>
+        <v>0.1390785735112244</v>
       </c>
       <c r="C74">
-        <v>0.02435022761734786</v>
+        <v>-0.05625535569368187</v>
       </c>
       <c r="D74">
-        <v>-0.0354506679650847</v>
+        <v>0.0102365002638668</v>
       </c>
       <c r="E74">
-        <v>0.005520901300156553</v>
+        <v>0.05800673246674749</v>
       </c>
       <c r="F74">
-        <v>0.06523386026876149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08089211493345518</v>
+      </c>
+      <c r="G74">
+        <v>-0.01236916299218553</v>
+      </c>
+      <c r="H74">
+        <v>0.01253506303606344</v>
+      </c>
+      <c r="I74">
+        <v>-0.06722621158710647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2276932304965369</v>
+        <v>0.2411850985071667</v>
       </c>
       <c r="C75">
-        <v>0.08029525763789622</v>
+        <v>-0.06632536347971882</v>
       </c>
       <c r="D75">
-        <v>-0.07169135512869323</v>
+        <v>-0.009174705986066862</v>
       </c>
       <c r="E75">
-        <v>-0.01017924283678581</v>
+        <v>0.1242707976195024</v>
       </c>
       <c r="F75">
-        <v>0.1464286619531817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1486041200144273</v>
+      </c>
+      <c r="G75">
+        <v>0.02211471512726687</v>
+      </c>
+      <c r="H75">
+        <v>-0.006734425062198865</v>
+      </c>
+      <c r="I75">
+        <v>-0.0102474914564442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2606577026144806</v>
+        <v>0.2555062912445143</v>
       </c>
       <c r="C76">
-        <v>0.100426696071006</v>
+        <v>-0.04883842396939856</v>
       </c>
       <c r="D76">
-        <v>-0.03646435869259736</v>
+        <v>0.02705166996906369</v>
       </c>
       <c r="E76">
-        <v>0.05207290445354405</v>
+        <v>0.1504251826343162</v>
       </c>
       <c r="F76">
-        <v>0.1505450356071372</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1994919614413306</v>
+      </c>
+      <c r="G76">
+        <v>0.02047688746969973</v>
+      </c>
+      <c r="H76">
+        <v>0.07507343862291127</v>
+      </c>
+      <c r="I76">
+        <v>-0.02703415033563712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.142919271145792</v>
+        <v>0.1028368479896717</v>
       </c>
       <c r="C77">
-        <v>-0.04306486330322617</v>
+        <v>-0.08671204962360865</v>
       </c>
       <c r="D77">
-        <v>-0.0893626196565868</v>
+        <v>0.02296723386299862</v>
       </c>
       <c r="E77">
-        <v>0.01996814000637413</v>
+        <v>-0.03633280554043229</v>
       </c>
       <c r="F77">
-        <v>-0.2123686791795573</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1616817497634815</v>
+      </c>
+      <c r="G77">
+        <v>0.2309099716954551</v>
+      </c>
+      <c r="H77">
+        <v>0.04158552036969474</v>
+      </c>
+      <c r="I77">
+        <v>-0.2618243837588032</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08351411226938349</v>
+        <v>0.06048371061785753</v>
       </c>
       <c r="C78">
-        <v>-0.02022213047710823</v>
+        <v>-0.06673480635994532</v>
       </c>
       <c r="D78">
-        <v>-0.09035588054163084</v>
+        <v>0.02597170817393827</v>
       </c>
       <c r="E78">
-        <v>0.04598016779757063</v>
+        <v>0.02673049856905137</v>
       </c>
       <c r="F78">
-        <v>-0.04268609906010316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07182781998935882</v>
+      </c>
+      <c r="G78">
+        <v>0.03176530609728515</v>
+      </c>
+      <c r="H78">
+        <v>-0.02279246121271981</v>
+      </c>
+      <c r="I78">
+        <v>-0.04820732403898643</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1294500838848557</v>
+        <v>0.1491779505177329</v>
       </c>
       <c r="C80">
-        <v>-0.1318494877510967</v>
+        <v>0.3489894498177591</v>
       </c>
       <c r="D80">
-        <v>0.4222265973733013</v>
+        <v>0.9104738032502833</v>
       </c>
       <c r="E80">
-        <v>0.8657566606158612</v>
+        <v>-0.02378358939405688</v>
       </c>
       <c r="F80">
-        <v>-0.03483697398702856</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06859461044820334</v>
+      </c>
+      <c r="G80">
+        <v>-0.04280587296194772</v>
+      </c>
+      <c r="H80">
+        <v>-0.03710368743919259</v>
+      </c>
+      <c r="I80">
+        <v>0.08768261702135188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1659665958883359</v>
+        <v>0.1800657111042756</v>
       </c>
       <c r="C81">
-        <v>0.05851051099736161</v>
+        <v>-0.03996626586313223</v>
       </c>
       <c r="D81">
-        <v>-0.03577571914740236</v>
+        <v>0.007467963401472369</v>
       </c>
       <c r="E81">
-        <v>0.0115666963398527</v>
+        <v>0.1005140031121243</v>
       </c>
       <c r="F81">
-        <v>0.1526930462896811</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1446299503935687</v>
+      </c>
+      <c r="G81">
+        <v>0.04336245660478125</v>
+      </c>
+      <c r="H81">
+        <v>0.03853472519460951</v>
+      </c>
+      <c r="I81">
+        <v>-0.005501066895934373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.05891748607786215</v>
+        <v>0.04756869518146626</v>
       </c>
       <c r="C83">
-        <v>-0.04946312976352613</v>
+        <v>-0.04948216239424063</v>
       </c>
       <c r="D83">
-        <v>-0.07284776045876865</v>
+        <v>0.00662040164016594</v>
       </c>
       <c r="E83">
-        <v>0.005277123753713111</v>
+        <v>-0.01618069448801273</v>
       </c>
       <c r="F83">
-        <v>-0.02773795524573361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.05082696920290042</v>
+      </c>
+      <c r="G83">
+        <v>0.02750491293837752</v>
+      </c>
+      <c r="H83">
+        <v>-0.0298419618980735</v>
+      </c>
+      <c r="I83">
+        <v>-0.04958852033123713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2290405442321372</v>
+        <v>0.2380209526165551</v>
       </c>
       <c r="C85">
-        <v>0.04365624744702436</v>
+        <v>-0.0913867283697814</v>
       </c>
       <c r="D85">
-        <v>-0.06776092589726784</v>
+        <v>0.01739773102193767</v>
       </c>
       <c r="E85">
-        <v>0.04235989548529534</v>
+        <v>0.1138511282168946</v>
       </c>
       <c r="F85">
-        <v>0.1827940352078076</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1882466980102069</v>
+      </c>
+      <c r="G85">
+        <v>0.03036105892728019</v>
+      </c>
+      <c r="H85">
+        <v>0.02567808303742861</v>
+      </c>
+      <c r="I85">
+        <v>-0.02616918143281387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02349432842484368</v>
+        <v>0.01968896927360264</v>
       </c>
       <c r="C86">
-        <v>-0.007583849598120035</v>
+        <v>-0.03764259324686448</v>
       </c>
       <c r="D86">
-        <v>-0.06544831183629835</v>
+        <v>0.009304865398546726</v>
       </c>
       <c r="E86">
-        <v>0.01647145362060934</v>
+        <v>0.01603647243275179</v>
       </c>
       <c r="F86">
-        <v>-0.08369882322811308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08732237324538394</v>
+      </c>
+      <c r="G86">
+        <v>0.05970178617594636</v>
+      </c>
+      <c r="H86">
+        <v>-0.007702225701067543</v>
+      </c>
+      <c r="I86">
+        <v>-0.07619783100618745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01422588452792406</v>
+        <v>0.0239470890704233</v>
       </c>
       <c r="C87">
-        <v>0.0231674765441344</v>
+        <v>0.009301684756766749</v>
       </c>
       <c r="D87">
-        <v>0.04122601997338278</v>
+        <v>-0.0007395652687149551</v>
       </c>
       <c r="E87">
-        <v>-0.01682348706602948</v>
+        <v>-0.003853274042149312</v>
       </c>
       <c r="F87">
-        <v>-0.1083075869935491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1064776199444745</v>
+      </c>
+      <c r="G87">
+        <v>0.006675864165669164</v>
+      </c>
+      <c r="H87">
+        <v>0.01353253834067834</v>
+      </c>
+      <c r="I87">
+        <v>-0.06324951229672193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01757171741428699</v>
+        <v>0.03172766095980241</v>
       </c>
       <c r="C88">
-        <v>0.008835214652688564</v>
+        <v>0.00729227961143817</v>
       </c>
       <c r="D88">
-        <v>0.006404446108085851</v>
+        <v>0.002337806769125842</v>
       </c>
       <c r="E88">
-        <v>0.01852316819678371</v>
+        <v>0.007146726782549673</v>
       </c>
       <c r="F88">
-        <v>0.004674962334952125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.007210414976425291</v>
+      </c>
+      <c r="G88">
+        <v>0.0108383989701859</v>
+      </c>
+      <c r="H88">
+        <v>-0.06072254890425716</v>
+      </c>
+      <c r="I88">
+        <v>-0.007675693207808239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.1096022650418892</v>
+        <v>0.1485343837112815</v>
       </c>
       <c r="C89">
-        <v>0.1022027919666869</v>
+        <v>0.3325300006379496</v>
       </c>
       <c r="D89">
-        <v>0.287527861054254</v>
+        <v>-0.1701414530868663</v>
       </c>
       <c r="E89">
-        <v>-0.1702109510330309</v>
+        <v>-0.1021539417473703</v>
       </c>
       <c r="F89">
-        <v>-0.04298067533720384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01952647438253843</v>
+      </c>
+      <c r="G89">
+        <v>0.09935538879607655</v>
+      </c>
+      <c r="H89">
+        <v>-0.00825525518116624</v>
+      </c>
+      <c r="I89">
+        <v>-0.04514040996376868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.09296067743943744</v>
+        <v>0.1052216928047788</v>
       </c>
       <c r="C90">
-        <v>0.09652353308638244</v>
+        <v>0.2894343864966409</v>
       </c>
       <c r="D90">
-        <v>0.272509953438834</v>
+        <v>-0.1277523188456121</v>
       </c>
       <c r="E90">
-        <v>-0.1030349315369458</v>
+        <v>-0.08698555595911529</v>
       </c>
       <c r="F90">
-        <v>-0.0451699541650795</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.007990848639415817</v>
+      </c>
+      <c r="G90">
+        <v>0.08363071437291239</v>
+      </c>
+      <c r="H90">
+        <v>-0.003665746554317479</v>
+      </c>
+      <c r="I90">
+        <v>0.0004797545779101827</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2872781981350166</v>
+        <v>0.2809950838411547</v>
       </c>
       <c r="C91">
-        <v>0.05543665876337071</v>
+        <v>-0.1015282408792604</v>
       </c>
       <c r="D91">
-        <v>-0.08412257745389391</v>
+        <v>0.01612344836154457</v>
       </c>
       <c r="E91">
-        <v>0.03686029107455807</v>
+        <v>0.1190800757299323</v>
       </c>
       <c r="F91">
-        <v>0.2553459343194613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2573449422048687</v>
+      </c>
+      <c r="G91">
+        <v>0.05203633125019578</v>
+      </c>
+      <c r="H91">
+        <v>0.06547535799415871</v>
+      </c>
+      <c r="I91">
+        <v>-0.02504886931478808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1263756553774566</v>
+        <v>0.1892561788027866</v>
       </c>
       <c r="C92">
-        <v>0.05439618494096306</v>
+        <v>0.309840788117188</v>
       </c>
       <c r="D92">
-        <v>0.3281096073807181</v>
+        <v>-0.1174364999340047</v>
       </c>
       <c r="E92">
-        <v>-0.1156704753366159</v>
+        <v>-0.115191603523955</v>
       </c>
       <c r="F92">
-        <v>0.01967945741859411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09204648673533589</v>
+      </c>
+      <c r="G92">
+        <v>0.2051230428284025</v>
+      </c>
+      <c r="H92">
+        <v>-0.01418900902618889</v>
+      </c>
+      <c r="I92">
+        <v>0.002307349435192401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.09181716321515551</v>
+        <v>0.1304614601049349</v>
       </c>
       <c r="C93">
-        <v>0.0952580625351911</v>
+        <v>0.3448790775096086</v>
       </c>
       <c r="D93">
-        <v>0.3425432973183291</v>
+        <v>-0.161830952056752</v>
       </c>
       <c r="E93">
-        <v>-0.1465717975029981</v>
+        <v>-0.1338462811657953</v>
       </c>
       <c r="F93">
-        <v>0.01754571253853638</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03370286215911874</v>
+      </c>
+      <c r="G93">
+        <v>0.02864745388499003</v>
+      </c>
+      <c r="H93">
+        <v>-0.04063799521505899</v>
+      </c>
+      <c r="I93">
+        <v>0.04089172283353823</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2743889698733645</v>
+        <v>0.2989552354362465</v>
       </c>
       <c r="C94">
-        <v>0.09107407945427298</v>
+        <v>-0.03371016532911134</v>
       </c>
       <c r="D94">
-        <v>0.02337885561630871</v>
+        <v>-0.02617425025568028</v>
       </c>
       <c r="E94">
-        <v>-0.006533424620793057</v>
+        <v>0.1316682040210252</v>
       </c>
       <c r="F94">
-        <v>0.2156231444716312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2726944303588716</v>
+      </c>
+      <c r="G94">
+        <v>0.0504497749009814</v>
+      </c>
+      <c r="H94">
+        <v>0.2265312855618709</v>
+      </c>
+      <c r="I94">
+        <v>-0.03729337024999104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1476467176002823</v>
+        <v>0.1224930221151972</v>
       </c>
       <c r="C95">
-        <v>-0.01132749231090768</v>
+        <v>-0.1099138573313774</v>
       </c>
       <c r="D95">
-        <v>-0.1790782001825837</v>
+        <v>-0.04656550263643294</v>
       </c>
       <c r="E95">
-        <v>0.001564915290149743</v>
+        <v>0.03806968731553485</v>
       </c>
       <c r="F95">
-        <v>0.4610311027536102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.09062739108845565</v>
+      </c>
+      <c r="G95">
+        <v>0.07470060772066069</v>
+      </c>
+      <c r="H95">
+        <v>-0.8772257916731119</v>
+      </c>
+      <c r="I95">
+        <v>0.3179939905784726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2197349594899286</v>
+        <v>0.2237870744165782</v>
       </c>
       <c r="C98">
-        <v>0.03678859262240693</v>
+        <v>0.003847448580993232</v>
       </c>
       <c r="D98">
-        <v>0.01570322942051695</v>
+        <v>-0.07475675635303053</v>
       </c>
       <c r="E98">
-        <v>-0.08955394669831852</v>
+        <v>-0.01601480867734342</v>
       </c>
       <c r="F98">
-        <v>-0.08436663716140655</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1968194122470285</v>
+      </c>
+      <c r="G98">
+        <v>-0.3841697334235051</v>
+      </c>
+      <c r="H98">
+        <v>-0.006990097177394589</v>
+      </c>
+      <c r="I98">
+        <v>0.03750800614310345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.005548531231042693</v>
+        <v>0.01457806628996223</v>
       </c>
       <c r="C101">
-        <v>0.02170563906535517</v>
+        <v>-0.02582119088405867</v>
       </c>
       <c r="D101">
-        <v>-0.06608125612359123</v>
+        <v>0.01166376758554928</v>
       </c>
       <c r="E101">
-        <v>0.03922694038987409</v>
+        <v>0.0382297117325771</v>
       </c>
       <c r="F101">
-        <v>-0.02104162398171564</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.07694872723295119</v>
+      </c>
+      <c r="G101">
+        <v>0.1110279185565811</v>
+      </c>
+      <c r="H101">
+        <v>0.01225901658410482</v>
+      </c>
+      <c r="I101">
+        <v>0.1207936773987002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09472923285293711</v>
+        <v>0.1133612950094396</v>
       </c>
       <c r="C102">
-        <v>0.0221141793332641</v>
+        <v>-0.04015816204411287</v>
       </c>
       <c r="D102">
-        <v>-0.04363776480152911</v>
+        <v>0.01509851808419741</v>
       </c>
       <c r="E102">
-        <v>0.03603611506515898</v>
+        <v>0.05700148145086803</v>
       </c>
       <c r="F102">
-        <v>0.09572007924833627</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1068982100436413</v>
+      </c>
+      <c r="G102">
+        <v>0.01557348455092119</v>
+      </c>
+      <c r="H102">
+        <v>0.01006436968400126</v>
+      </c>
+      <c r="I102">
+        <v>-0.02173622306035045</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01982754702297886</v>
+        <v>0.02662728736268071</v>
       </c>
       <c r="C103">
-        <v>0.01070059388343869</v>
+        <v>-0.006466289068705201</v>
       </c>
       <c r="D103">
-        <v>-0.006126844815019935</v>
+        <v>0.01084126154652535</v>
       </c>
       <c r="E103">
-        <v>0.008267605050860298</v>
+        <v>0.01975043214291302</v>
       </c>
       <c r="F103">
-        <v>0.01858690024254326</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01741446487039103</v>
+      </c>
+      <c r="G103">
+        <v>0.01874906301857408</v>
+      </c>
+      <c r="H103">
+        <v>-0.003262959086406154</v>
+      </c>
+      <c r="I103">
+        <v>-0.01982081869500373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
